--- a/hypothesis_test.xlsx
+++ b/hypothesis_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batu/Desktop/programming/GloBox_A-B_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03BAA7A-F9AD-E240-B2BF-13003EC5383E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF907E-5264-3E4F-AED7-AA167C5DF06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13800" xr2:uid="{E688DFEB-493C-5C46-AEBF-65B616948F08}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13800" activeTab="1" xr2:uid="{E688DFEB-493C-5C46-AEBF-65B616948F08}"/>
   </bookViews>
   <sheets>
     <sheet name="t_test_avg_spent_per_user" sheetId="2" r:id="rId1"/>
@@ -104,9 +104,6 @@
     <t>standard_error</t>
   </si>
   <si>
-    <t>test_statistic</t>
-  </si>
-  <si>
     <t>Null Hypothesis(H0): There is no difference in the conversion rate between the two groups.</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>There is not enough evidence to suggest a significant difference in the mean amount spent per user between the control and treatment groups</t>
+  </si>
+  <si>
+    <t>z_value</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DECFAC-B37D-EB4B-8EF6-8CB9FDC5CE4E}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -625,12 +625,12 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C98994-0520-4A48-AB47-366DD10C1D7F}">
   <dimension ref="B1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="156" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,12 +665,12 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -723,7 +723,7 @@
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>3.8642917704149271</v>
@@ -740,12 +740,12 @@
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/hypothesis_test.xlsx
+++ b/hypothesis_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/batu/Desktop/programming/GloBox_A-B_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF907E-5264-3E4F-AED7-AA167C5DF06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9809B0A6-4CF5-734E-82ED-7C3E6AEE0B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13800" activeTab="1" xr2:uid="{E688DFEB-493C-5C46-AEBF-65B616948F08}"/>
   </bookViews>
@@ -649,7 +649,7 @@
   <dimension ref="B1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
